--- a/늪논문/1번: 피어슨 선형회귀분석(노인비율VS의원비율)/전처리된_노인비율.xlsx
+++ b/늪논문/1번: 피어슨 선형회귀분석(노인비율VS의원비율)/전처리된_노인비율.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="255">
   <si>
     <t>행정기관</t>
   </si>
   <si>
     <t>노인 비율</t>
+  </si>
+  <si>
+    <t>총 인구수</t>
   </si>
   <si>
     <t>서울특별시 종로구</t>
@@ -1107,2042 +1110,2804 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B254"/>
+  <dimension ref="A1:C254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>0.2964</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>138208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0.2996</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>120325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>0.2661</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>203727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0.263</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>273549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>0.2535</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>331589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0.2791</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>338822</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0.3103</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>378971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>0.2717</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>420710</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>0.3404</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>283293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>0.3363</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>303057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>0.2835</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>490307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>0.2919</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>460738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>0.2712</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <v>302297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>0.2295</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <v>360981</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>0.2641</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>430618</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0.2678</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>555518</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0.2907</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>387510</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0.2981</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>224924</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>0.2541</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>373307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>0.2651</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <v>375456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>0.2508</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <v>477940</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>0.2297</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <v>408324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>0.2236</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <v>557115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>0.2476</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <v>649071</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>0.2636</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <v>484301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0.4201</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>37469</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>0.3897</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <v>103065</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>0.3883</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <v>85857</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>0.4348</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <v>103503</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>0.315</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <v>359150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>0.3018</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <v>274843</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>0.3231</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <v>253970</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>0.3392</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <v>267287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>0.3093</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <v>376213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>0.3454</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <v>292117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0.3653</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>209326</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>0.2131</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <v>142869</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>0.3123</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <v>212566</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>0.3375</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <v>171871</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>0.3532</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <v>198258</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0.2644</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>175527</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>0.2448</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <v>98112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <v>0.3229</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <v>342133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0.3869</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>162815</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>0.366</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <v>136642</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>0.2751</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <v>412347</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>0.2715</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <v>409676</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>0.284</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <v>521673</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>0.2472</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <v>257469</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <v>0.6091</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51">
+        <v>22414</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0.2231</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>168271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53">
+        <v>58162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>0.2879</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54">
+        <v>412621</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <v>0.2064</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55">
+        <v>400461</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56">
         <v>0.2769</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56">
+        <v>485702</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0.2794</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>493853</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58">
         <v>0.2917</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58">
+        <v>279685</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59">
         <v>0.2084</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59">
+        <v>635553</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60">
         <v>0.5081</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60">
+        <v>69439</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61">
         <v>0.4638</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61">
+        <v>19902</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62">
         <v>0.313</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62">
+        <v>105910</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63">
         <v>0.2589</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63">
+        <v>278614</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64">
         <v>0.2907</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64">
+        <v>208004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65">
         <v>0.2685</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65">
+        <v>423403</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66">
         <v>0.1874</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66">
+        <v>391166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B67">
         <v>0.313</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67">
+        <v>219439</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B68">
         <v>0.3181</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68">
+        <v>224881</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B69">
         <v>0.2403</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69">
+        <v>457758</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B70">
         <v>0.1907</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70">
+        <v>369111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B71">
         <v>0.3058</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71">
+        <v>167785</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B72">
         <v>0.2987</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72">
+        <v>206883</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B73">
         <v>0.2563</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73">
+        <v>304922</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B74">
         <v>0.2693</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74">
+        <v>150761</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B75">
         <v>0.1978</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75">
+        <v>216375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B76">
         <v>0.2916</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76">
+        <v>218880</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77">
         <v>0.1711</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77">
+        <v>390910</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>0.1711</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78">
+        <v>390910</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79">
         <v>0.2486</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79">
+        <v>274216</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80">
         <v>0.231</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80">
+        <v>362591</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81">
         <v>0.2516</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81">
+        <v>194389</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82">
         <v>0.1566</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82">
+        <v>361060</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>0.2814</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83">
+        <v>234721</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84">
         <v>0.2892</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84">
+        <v>206790</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85">
         <v>0.225</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85">
+        <v>471197</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86">
         <v>0.2725</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86">
+        <v>461142</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87">
         <v>0.3005</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87">
+        <v>230510</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88">
         <v>0.2304</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88">
+        <v>327452</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89">
         <v>0.2689</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89">
+        <v>389501</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90">
         <v>0.2865</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90">
+        <v>227754</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91">
         <v>0.3085</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91">
+        <v>151829</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92">
         <v>0.2571</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92">
+        <v>279805</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93">
         <v>0.2079</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="C93">
+        <v>599138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94">
         <v>0.3524</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="C94">
+        <v>86807</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="C95">
+        <v>326380</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96">
         <v>0.2386</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>293001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97">
         <v>0.2604</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="C97">
+        <v>492667</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98">
         <v>0.2515</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="C98">
+        <v>293813</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99">
         <v>0.2554</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="C99">
+        <v>282651</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100">
         <v>0.2248</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>85501</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101">
         <v>0.266</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="C101">
+        <v>186868</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102">
         <v>0.2534</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>732191</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B103">
         <v>0.1856</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>242618</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B104">
         <v>0.203</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="C104">
+        <v>517511</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105">
         <v>0.2715</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="C105">
+        <v>255533</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106">
         <v>0.2712</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="C106">
+        <v>154351</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B107">
         <v>0.2236</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
+      <c r="C107">
+        <v>328875</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B108">
         <v>0.2583</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
+      <c r="C108">
+        <v>275471</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B109">
         <v>0.2253</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="C109">
+        <v>435900</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110">
         <v>0.2103</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
+      <c r="C110">
+        <v>375773</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111">
         <v>0.2348</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
+      <c r="C111">
+        <v>513627</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112">
         <v>0.2582</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="C112">
+        <v>222420</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113">
         <v>0.298</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="C113">
+        <v>194007</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114">
         <v>0.2254</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="C114">
+        <v>486651</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115">
         <v>0.1668</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="C115">
+        <v>971835</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116">
         <v>0.2573</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
+      <c r="C116">
+        <v>397410</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117">
         <v>0.2503</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
+      <c r="C117">
+        <v>289527</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118">
         <v>0.3778</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="C118">
+        <v>141444</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119">
         <v>0.3706</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
+      <c r="C119">
+        <v>114562</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120">
         <v>0.4352</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="C120">
+        <v>40894</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="C121">
+        <v>62472</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B122">
         <v>0.4211</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
+      <c r="C122">
+        <v>126792</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B123">
         <v>0.2981</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="C123">
+        <v>285864</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B124">
         <v>0.2751</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
+      <c r="C124">
+        <v>362159</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B125">
         <v>0.3551</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
+      <c r="C125">
+        <v>207543</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126">
         <v>0.3399</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="C126">
+        <v>87571</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127">
         <v>0.4078</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="C127">
+        <v>37875</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B128">
         <v>0.3391</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="C128">
+        <v>80754</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B129">
         <v>0.406</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="C129">
+        <v>61464</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B130">
         <v>0.4573</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
+      <c r="C130">
+        <v>66661</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131">
         <v>0.4981</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
+      <c r="C131">
+        <v>46037</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132">
         <v>0.4822</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="C132">
+        <v>36603</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B133">
         <v>0.4777</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
+      <c r="C133">
+        <v>40305</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134">
         <v>0.4707</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
+      <c r="C134">
+        <v>33487</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135">
         <v>0.3836</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="C135">
+        <v>40408</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B136">
         <v>0.3825</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
+      <c r="C136">
+        <v>22764</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137">
         <v>0.3696</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
+      <c r="C137">
+        <v>20552</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138">
         <v>0.3571</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
+      <c r="C138">
+        <v>31385</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139">
         <v>0.451</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
+      <c r="C139">
+        <v>26920</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140">
         <v>0.4645</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
+      <c r="C140">
+        <v>27470</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141">
         <v>0.2711</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
+      <c r="C141">
+        <v>197879</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B142">
         <v>0.2839</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
+      <c r="C142">
+        <v>181285</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B143">
         <v>0.2059</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
+      <c r="C143">
+        <v>286480</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144">
         <v>0.232</v>
       </c>
-    </row>
-    <row r="145" spans="1:2">
+      <c r="C144">
+        <v>189098</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145">
         <v>0.3386</v>
       </c>
-    </row>
-    <row r="146" spans="1:2">
+      <c r="C145">
+        <v>207230</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B146">
         <v>0.3751</v>
       </c>
-    </row>
-    <row r="147" spans="1:2">
+      <c r="C146">
+        <v>128352</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147">
         <v>0.5371</v>
       </c>
-    </row>
-    <row r="148" spans="1:2">
+      <c r="C147">
+        <v>30494</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B148">
         <v>0.4711</v>
       </c>
-    </row>
-    <row r="149" spans="1:2">
+      <c r="C148">
+        <v>48119</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B149">
         <v>0.5021</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
+      <c r="C149">
+        <v>43504</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150">
         <v>0.303</v>
       </c>
-    </row>
-    <row r="151" spans="1:2">
+      <c r="C150">
+        <v>37160</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B151">
         <v>0.2768</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
+      <c r="C151">
+        <v>86429</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152">
         <v>0.5526</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
+      <c r="C152">
+        <v>36115</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B153">
         <v>0.3702</v>
       </c>
-    </row>
-    <row r="154" spans="1:2">
+      <c r="C153">
+        <v>91228</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154">
         <v>0.5168</v>
       </c>
-    </row>
-    <row r="155" spans="1:2">
+      <c r="C154">
+        <v>27293</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B155">
         <v>0.2652</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
+      <c r="C155">
+        <v>260787</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B156">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="157" spans="1:2">
+      <c r="C156">
+        <v>399360</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B157">
         <v>0.4197</v>
       </c>
-    </row>
-    <row r="158" spans="1:2">
+      <c r="C157">
+        <v>101068</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B158">
         <v>0.419</v>
       </c>
-    </row>
-    <row r="159" spans="1:2">
+      <c r="C158">
+        <v>93575</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B159">
         <v>0.2153</v>
       </c>
-    </row>
-    <row r="160" spans="1:2">
+      <c r="C159">
+        <v>355374</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B160">
         <v>0.3074</v>
       </c>
-    </row>
-    <row r="161" spans="1:2">
+      <c r="C160">
+        <v>174139</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B161">
         <v>0.4211</v>
       </c>
-    </row>
-    <row r="162" spans="1:2">
+      <c r="C161">
+        <v>108302</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B162">
         <v>0.2228</v>
       </c>
-    </row>
-    <row r="163" spans="1:2">
+      <c r="C162">
+        <v>46307</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B163">
         <v>0.2973</v>
       </c>
-    </row>
-    <row r="164" spans="1:2">
+      <c r="C163">
+        <v>172139</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B164">
         <v>0.4793</v>
       </c>
-    </row>
-    <row r="165" spans="1:2">
+      <c r="C164">
+        <v>49442</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B165">
         <v>0.5251</v>
       </c>
-    </row>
-    <row r="166" spans="1:2">
+      <c r="C165">
+        <v>59484</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B166">
         <v>0.5326</v>
       </c>
-    </row>
-    <row r="167" spans="1:2">
+      <c r="C166">
+        <v>48119</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B167">
         <v>0.5272</v>
       </c>
-    </row>
-    <row r="168" spans="1:2">
+      <c r="C167">
+        <v>29551</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B168">
         <v>0.364</v>
       </c>
-    </row>
-    <row r="169" spans="1:2">
+      <c r="C168">
+        <v>99287</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B169">
         <v>0.4582</v>
       </c>
-    </row>
-    <row r="170" spans="1:2">
+      <c r="C169">
+        <v>78879</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B170">
         <v>0.4879</v>
       </c>
-    </row>
-    <row r="171" spans="1:2">
+      <c r="C170">
+        <v>60002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B171">
         <v>0.2817</v>
       </c>
-    </row>
-    <row r="172" spans="1:2">
+      <c r="C171">
+        <v>321219</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172">
         <v>0.241</v>
       </c>
-    </row>
-    <row r="173" spans="1:2">
+      <c r="C172">
+        <v>313329</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B173">
         <v>0.316</v>
       </c>
-    </row>
-    <row r="174" spans="1:2">
+      <c r="C173">
+        <v>257832</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B174">
         <v>0.3342</v>
       </c>
-    </row>
-    <row r="175" spans="1:2">
+      <c r="C174">
+        <v>267654</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175">
         <v>0.417</v>
       </c>
-    </row>
-    <row r="176" spans="1:2">
+      <c r="C175">
+        <v>101986</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176">
         <v>0.4252</v>
       </c>
-    </row>
-    <row r="177" spans="1:2">
+      <c r="C176">
+        <v>75604</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177">
         <v>0.4551</v>
       </c>
-    </row>
-    <row r="178" spans="1:2">
+      <c r="C177">
+        <v>80979</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178">
         <v>0.3461</v>
       </c>
-    </row>
-    <row r="179" spans="1:2">
+      <c r="C178">
+        <v>99668</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179">
         <v>0.5232</v>
       </c>
-    </row>
-    <row r="180" spans="1:2">
+      <c r="C179">
+        <v>24217</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180">
         <v>0.4931</v>
       </c>
-    </row>
-    <row r="181" spans="1:2">
+      <c r="C180">
+        <v>23021</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181">
         <v>0.5061</v>
       </c>
-    </row>
-    <row r="182" spans="1:2">
+      <c r="C181">
+        <v>20618</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182">
         <v>0.5296999999999999</v>
       </c>
-    </row>
-    <row r="183" spans="1:2">
+      <c r="C182">
+        <v>25578</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B183">
         <v>0.4811</v>
       </c>
-    </row>
-    <row r="184" spans="1:2">
+      <c r="C183">
+        <v>26788</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184">
         <v>0.5007</v>
       </c>
-    </row>
-    <row r="185" spans="1:2">
+      <c r="C184">
+        <v>50869</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B185">
         <v>0.4939</v>
       </c>
-    </row>
-    <row r="186" spans="1:2">
+      <c r="C185">
+        <v>47989</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B186">
         <v>0.2942</v>
       </c>
-    </row>
-    <row r="187" spans="1:2">
+      <c r="C186">
+        <v>209289</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B187">
         <v>0.3298</v>
       </c>
-    </row>
-    <row r="188" spans="1:2">
+      <c r="C187">
+        <v>267338</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B188">
         <v>0.2794</v>
       </c>
-    </row>
-    <row r="189" spans="1:2">
+      <c r="C188">
+        <v>276153</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189">
         <v>0.3327</v>
       </c>
-    </row>
-    <row r="190" spans="1:2">
+      <c r="C189">
+        <v>116710</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B190">
         <v>0.2472</v>
       </c>
-    </row>
-    <row r="191" spans="1:2">
+      <c r="C190">
+        <v>154914</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B191">
         <v>0.4703</v>
       </c>
-    </row>
-    <row r="192" spans="1:2">
+      <c r="C191">
+        <v>44569</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B192">
         <v>0.522</v>
       </c>
-    </row>
-    <row r="193" spans="1:2">
+      <c r="C192">
+        <v>26548</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B193">
         <v>0.5135</v>
       </c>
-    </row>
-    <row r="194" spans="1:2">
+      <c r="C193">
+        <v>24002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B194">
         <v>0.5681</v>
       </c>
-    </row>
-    <row r="195" spans="1:2">
+      <c r="C194">
+        <v>60100</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B195">
         <v>0.5447</v>
       </c>
-    </row>
-    <row r="196" spans="1:2">
+      <c r="C195">
+        <v>37149</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196">
         <v>0.4125</v>
       </c>
-    </row>
-    <row r="197" spans="1:2">
+      <c r="C196">
+        <v>60737</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197">
         <v>0.496</v>
       </c>
-    </row>
-    <row r="198" spans="1:2">
+      <c r="C197">
+        <v>34417</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B198">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="199" spans="1:2">
+      <c r="C198">
+        <v>32169</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B199">
         <v>0.4829</v>
       </c>
-    </row>
-    <row r="200" spans="1:2">
+      <c r="C199">
+        <v>63002</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B200">
         <v>0.4061</v>
       </c>
-    </row>
-    <row r="201" spans="1:2">
+      <c r="C200">
+        <v>51261</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B201">
         <v>0.2841</v>
       </c>
-    </row>
-    <row r="202" spans="1:2">
+      <c r="C201">
+        <v>92927</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B202">
         <v>0.5245</v>
       </c>
-    </row>
-    <row r="203" spans="1:2">
+      <c r="C202">
+        <v>29913</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B203">
         <v>0.4126</v>
       </c>
-    </row>
-    <row r="204" spans="1:2">
+      <c r="C203">
+        <v>52272</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B204">
         <v>0.4485</v>
       </c>
-    </row>
-    <row r="205" spans="1:2">
+      <c r="C204">
+        <v>42024</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B205">
         <v>0.4771</v>
       </c>
-    </row>
-    <row r="206" spans="1:2">
+      <c r="C205">
+        <v>45503</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B206">
         <v>0.4828</v>
       </c>
-    </row>
-    <row r="207" spans="1:2">
+      <c r="C206">
+        <v>28374</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B207">
         <v>0.5165</v>
       </c>
-    </row>
-    <row r="208" spans="1:2">
+      <c r="C207">
+        <v>38221</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B208">
         <v>0.3227</v>
       </c>
-    </row>
-    <row r="209" spans="1:2">
+      <c r="C208">
+        <v>219629</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B209">
         <v>0.313</v>
       </c>
-    </row>
-    <row r="210" spans="1:2">
+      <c r="C209">
+        <v>271810</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B210">
         <v>0.3768</v>
       </c>
-    </row>
-    <row r="211" spans="1:2">
+      <c r="C210">
+        <v>244589</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B211">
         <v>0.3713</v>
       </c>
-    </row>
-    <row r="212" spans="1:2">
+      <c r="C211">
+        <v>135610</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B212">
         <v>0.3797</v>
       </c>
-    </row>
-    <row r="213" spans="1:2">
+      <c r="C212">
+        <v>152902</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B213">
         <v>0.2069</v>
       </c>
-    </row>
-    <row r="214" spans="1:2">
+      <c r="C213">
+        <v>404395</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B214">
         <v>0.417</v>
       </c>
-    </row>
-    <row r="215" spans="1:2">
+      <c r="C214">
+        <v>98782</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B215">
         <v>0.4459</v>
       </c>
-    </row>
-    <row r="216" spans="1:2">
+      <c r="C215">
+        <v>97872</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B216">
         <v>0.4756</v>
       </c>
-    </row>
-    <row r="217" spans="1:2">
+      <c r="C216">
+        <v>91784</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B217">
         <v>0.4666</v>
       </c>
-    </row>
-    <row r="218" spans="1:2">
+      <c r="C217">
+        <v>67025</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B218">
         <v>0.2918</v>
       </c>
-    </row>
-    <row r="219" spans="1:2">
+      <c r="C218">
+        <v>266013</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B219">
         <v>0.5973000000000001</v>
       </c>
-    </row>
-    <row r="220" spans="1:2">
+      <c r="C219">
+        <v>48620</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B220">
         <v>0.5639999999999999</v>
       </c>
-    </row>
-    <row r="221" spans="1:2">
+      <c r="C220">
+        <v>23687</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B221">
         <v>0.5517</v>
       </c>
-    </row>
-    <row r="222" spans="1:2">
+      <c r="C221">
+        <v>15309</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B222">
         <v>0.5482</v>
       </c>
-    </row>
-    <row r="223" spans="1:2">
+      <c r="C222">
+        <v>33123</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B223">
         <v>0.5689</v>
       </c>
-    </row>
-    <row r="224" spans="1:2">
+      <c r="C223">
+        <v>40544</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B224">
         <v>0.5002</v>
       </c>
-    </row>
-    <row r="225" spans="1:2">
+      <c r="C224">
+        <v>30041</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B225">
         <v>0.5222</v>
       </c>
-    </row>
-    <row r="226" spans="1:2">
+      <c r="C225">
+        <v>41396</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B226">
         <v>0.2917</v>
       </c>
-    </row>
-    <row r="227" spans="1:2">
+      <c r="C226">
+        <v>107142</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B227">
         <v>0.4253</v>
       </c>
-    </row>
-    <row r="228" spans="1:2">
+      <c r="C227">
+        <v>54480</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B228">
         <v>0.5633</v>
       </c>
-    </row>
-    <row r="229" spans="1:2">
+      <c r="C228">
+        <v>28719</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B229">
         <v>0.4303</v>
       </c>
-    </row>
-    <row r="230" spans="1:2">
+      <c r="C229">
+        <v>46106</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B230">
         <v>0.4164</v>
       </c>
-    </row>
-    <row r="231" spans="1:2">
+      <c r="C230">
+        <v>9063</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B231">
         <v>0.2789</v>
       </c>
-    </row>
-    <row r="232" spans="1:2">
+      <c r="C231">
+        <v>209732</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B232">
         <v>0.2266</v>
       </c>
-    </row>
-    <row r="233" spans="1:2">
+      <c r="C232">
+        <v>244262</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B233">
         <v>0.3485</v>
       </c>
-    </row>
-    <row r="234" spans="1:2">
+      <c r="C233">
+        <v>178071</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B234">
         <v>0.3262</v>
       </c>
-    </row>
-    <row r="235" spans="1:2">
+      <c r="C234">
+        <v>178806</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B235">
         <v>0.2573</v>
       </c>
-    </row>
-    <row r="236" spans="1:2">
+      <c r="C235">
+        <v>188528</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B236">
         <v>0.2903</v>
       </c>
-    </row>
-    <row r="237" spans="1:2">
+      <c r="C236">
+        <v>338449</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B237">
         <v>0.3545</v>
       </c>
-    </row>
-    <row r="238" spans="1:2">
+      <c r="C237">
+        <v>118250</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B238">
         <v>0.3471</v>
       </c>
-    </row>
-    <row r="239" spans="1:2">
+      <c r="C238">
+        <v>108420</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B239">
         <v>0.2324</v>
       </c>
-    </row>
-    <row r="240" spans="1:2">
+      <c r="C239">
+        <v>531683</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B240">
         <v>0.4604</v>
       </c>
-    </row>
-    <row r="241" spans="1:2">
+      <c r="C240">
+        <v>100544</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B241">
         <v>0.2325</v>
       </c>
-    </row>
-    <row r="242" spans="1:2">
+      <c r="C241">
+        <v>232777</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B242">
         <v>0.2596</v>
       </c>
-    </row>
-    <row r="243" spans="1:2">
+      <c r="C242">
+        <v>359920</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B243">
         <v>0.547</v>
       </c>
-    </row>
-    <row r="244" spans="1:2">
+      <c r="C243">
+        <v>25094</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B244">
         <v>0.4213</v>
       </c>
-    </row>
-    <row r="245" spans="1:2">
+      <c r="C244">
+        <v>58849</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B245">
         <v>0.5007</v>
       </c>
-    </row>
-    <row r="246" spans="1:2">
+      <c r="C245">
+        <v>56040</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B246">
         <v>0.4865</v>
       </c>
-    </row>
-    <row r="247" spans="1:2">
+      <c r="C246">
+        <v>47913</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B247">
         <v>0.5432</v>
       </c>
-    </row>
-    <row r="248" spans="1:2">
+      <c r="C247">
+        <v>39730</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B248">
         <v>0.5385</v>
       </c>
-    </row>
-    <row r="249" spans="1:2">
+      <c r="C248">
+        <v>40679</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B249">
         <v>0.5545</v>
       </c>
-    </row>
-    <row r="250" spans="1:2">
+      <c r="C249">
+        <v>33203</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B250">
         <v>0.5089</v>
       </c>
-    </row>
-    <row r="251" spans="1:2">
+      <c r="C250">
+        <v>36002</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B251">
         <v>0.4213</v>
       </c>
-    </row>
-    <row r="252" spans="1:2">
+      <c r="C251">
+        <v>59514</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B252">
         <v>0.5756</v>
       </c>
-    </row>
-    <row r="253" spans="1:2">
+      <c r="C252">
+        <v>40133</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B253">
         <v>0.2514</v>
       </c>
-    </row>
-    <row r="254" spans="1:2">
+      <c r="C253">
+        <v>487623</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B254">
         <v>0.3188</v>
+      </c>
+      <c r="C254">
+        <v>181837</v>
       </c>
     </row>
   </sheetData>
